--- a/OnBoard/data/haul_order.xlsx
+++ b/OnBoard/data/haul_order.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,11 +440,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45602</v>
+        <v>45985</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2">
@@ -452,14 +452,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 950</t>
+          <t>Numero cassette: 5.</t>
         </is>
       </c>
       <c r="E2" s="2">
-        <v>0.6111111111094942</v>
+        <v>0.6423611111094942</v>
       </c>
       <c r="F2" s="2">
-        <v>0.6319444444452529</v>
+        <v>0.6631944444452529</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -470,15 +470,13 @@
         </is>
       </c>
       <c r="J2">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>5.5</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -486,11 +484,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45605</v>
+        <v>45980</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3">
@@ -498,14 +496,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 920, parte sogliole rapi a misurate a bordo</t>
+          <t>Numero cassette: 4. MELIKER E SEPIOFF RAP A ANALIZZATI A BORDO. SEPIOFF RAP D ANALIZZATA A BORDO.</t>
         </is>
       </c>
       <c r="E3" s="2">
-        <v>0.3402777777773736</v>
+        <v>0.7055555555562023</v>
       </c>
       <c r="F3" s="2">
-        <v>0.3611111111094942</v>
+        <v>0.726388888888323</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -516,15 +514,13 @@
         </is>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>31.5</v>
       </c>
       <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
+        <v>38.1</v>
+      </c>
+      <c r="L3">
+        <v>6.9</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -532,11 +528,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45605</v>
+        <v>45985</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4">
@@ -544,14 +540,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cavo 150 passi giri motore 920</t>
+          <t>Numero cassette: 6</t>
         </is>
       </c>
       <c r="E4" s="2">
-        <v>0.5131944444437977</v>
+        <v>0.2756944444445253</v>
       </c>
       <c r="F4" s="2">
-        <v>0.5340277777795563</v>
+        <v>0.296527777776646</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -565,12 +561,10 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>6.2</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -578,11 +572,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45602</v>
+        <v>45982</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C5">
@@ -590,14 +584,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più  al rap A. Giri motore 910. Seguite le tracce del 2020 e 2021</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E5" s="2">
-        <v>0.4798611111109494</v>
+        <v>0.4006944444445253</v>
       </c>
       <c r="F5" s="2">
-        <v>0.5006944444430701</v>
+        <v>0.421527777776646</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -608,15 +602,13 @@
         </is>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+        <v>66</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -624,11 +616,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45607</v>
+        <v>45980</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C6">
@@ -636,14 +628,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 920  tirati 15 minuti per evitare saccata troppo grossa riparati entrambi i rapidi rete e foderone</t>
+          <t>Numero cassette: 6</t>
         </is>
       </c>
       <c r="E6" s="2">
-        <v>0.4944444444445253</v>
+        <v>0.5881944444445253</v>
       </c>
       <c r="F6" s="2">
-        <v>0.5048611111124046</v>
+        <v>0.609027777776646</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -654,27 +646,25 @@
         </is>
       </c>
       <c r="J6">
-        <v>1244</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>1100</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>12.7</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <v>7.1</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45606</v>
+        <v>45984</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7">
@@ -682,14 +672,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 980</t>
+          <t>Numero cassette:  2. Coltello quasi a paro della slitta. Denti storti per presenza di pietre.</t>
         </is>
       </c>
       <c r="E7" s="2">
-        <v>0.4381944444430701</v>
+        <v>0.5222222222218988</v>
       </c>
       <c r="F7" s="2">
-        <v>0.4590277777788287</v>
+        <v>0.5326388888897782</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -700,27 +690,25 @@
         </is>
       </c>
       <c r="J7">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="K7">
-        <v>230</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+        <v>484</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45605</v>
+        <v>45984</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C8">
@@ -728,14 +716,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cavo 150npassi giri motore 920</t>
+          <t>Numero cassette:  4. Misurato subcampione di solgiole dal Rapido D</t>
         </is>
       </c>
       <c r="E8" s="2">
-        <v>0.6895833333328483</v>
+        <v>0.5722222222211713</v>
       </c>
       <c r="F8" s="2">
-        <v>0.7104166666649689</v>
+        <v>0.5930555555569299</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -746,15 +734,13 @@
         </is>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="K8">
-        <v>22</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>272</v>
+      </c>
+      <c r="L8">
+        <v>6.3</v>
       </c>
       <c r="N8">
         <v>30</v>
@@ -762,11 +748,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45606</v>
+        <v>45982</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9">
@@ -774,14 +760,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cavo 180 passi giri motore 860</t>
+          <t>Numero cassette:  6 Deviazione di 50 gradi a DX per rollare meno a 3 minuti dalla fine.</t>
         </is>
       </c>
       <c r="E9" s="2">
-        <v>0.2638888888905058</v>
+        <v>0.5763888888905058</v>
       </c>
       <c r="F9" s="2">
-        <v>0.2743055555547471</v>
+        <v>0.5972222222226264</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -792,27 +778,25 @@
         </is>
       </c>
       <c r="J9">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>302</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45603</v>
+        <v>45982</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10">
@@ -820,14 +804,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più  al rap a). Giri motore 980. Cala prima dell'alba. Pezzo di tronco nella bocca del rap A, per questo pescata ridotta.</t>
+          <t>Numero cassette: 7</t>
         </is>
       </c>
       <c r="E10" s="2">
-        <v>0.2104166666649689</v>
+        <v>0.2430555555547471</v>
       </c>
       <c r="F10" s="2">
-        <v>0.2312500000007276</v>
+        <v>0.2534722222226264</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -838,27 +822,25 @@
         </is>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="K10">
-        <v>46</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+        <v>428</v>
+      </c>
+      <c r="L10">
+        <v>8.5</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>45607</v>
+        <v>45981</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11">
@@ -866,14 +848,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore ridotto a 15 per evitare saccate troppo grosse</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E11" s="2">
-        <v>0.6527777777773736</v>
+        <v>0.2750000000014552</v>
       </c>
       <c r="F11" s="2">
-        <v>0.6631944444452529</v>
+        <v>0.2958333333335759</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -884,27 +866,25 @@
         </is>
       </c>
       <c r="J11">
-        <v>192</v>
+        <v>53.59999999999999</v>
       </c>
       <c r="K11">
-        <v>260</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+        <v>52.5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>45602</v>
+        <v>45984</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C12">
@@ -912,14 +892,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>aggiunta mezza linguetta ai denti. Cavo 210 passi, dato qualche metro in più  al rap A</t>
+          <t>Numero cassette:  4. Misurato subcampione di sogliole dal rapido A e D</t>
         </is>
       </c>
       <c r="E12" s="2">
-        <v>0.296527777776646</v>
+        <v>0.6631944444452529</v>
       </c>
       <c r="F12" s="2">
-        <v>0.3069444444445253</v>
+        <v>0.6840277777773736</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -930,27 +910,25 @@
         </is>
       </c>
       <c r="J12">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="K12">
-        <v>480</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+        <v>188</v>
+      </c>
+      <c r="L12">
+        <v>8.5</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>45602</v>
+        <v>45980</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C13">
@@ -958,14 +936,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cavo 210 passi; qualche metro in più  al rapido A. Cala prima dell'alba.</t>
+          <t>Numero cassette: 3</t>
         </is>
       </c>
       <c r="E13" s="2">
-        <v>0.2152777777773736</v>
+        <v>0.4152777777781012</v>
       </c>
       <c r="F13" s="2">
-        <v>0.2256944444452529</v>
+        <v>0.4256944444459805</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -976,15 +954,13 @@
         </is>
       </c>
       <c r="J13">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="K13">
-        <v>360</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>364</v>
+      </c>
+      <c r="L13">
+        <v>7.2</v>
       </c>
       <c r="N13">
         <v>15</v>
@@ -992,11 +968,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>45607</v>
+        <v>45980</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C14">
@@ -1004,14 +980,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Giri motore 660. Corrente forte che spinge la barca. Traccia sul pc della barca iniziata 6 minuti prima, più  affidabile la traccia del tablet. Vento da NE, onda da NO.</t>
+          <t>Numero cassette: 2</t>
         </is>
       </c>
       <c r="E14" s="2">
-        <v>0.3520833333350311</v>
+        <v>0.336111111111677</v>
       </c>
       <c r="F14" s="2">
-        <v>0.3729166666671517</v>
+        <v>0.3465277777795563</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1022,42 +998,35 @@
         </is>
       </c>
       <c r="J14">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="K14">
-        <v>46</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+        <v>276</v>
+      </c>
+      <c r="L14">
+        <v>13.3</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>45607</v>
+        <v>45977</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Giri motore 1060. Onda da NE e vento da NO, mare ingrossato (1  m)</t>
-        </is>
-      </c>
       <c r="E15" s="2">
-        <v>0.3958333333321207</v>
+        <v>0.5534722222218988</v>
       </c>
       <c r="F15" s="2">
-        <v>0.4173611111109494</v>
+        <v>0.5743055555540195</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1068,42 +1037,35 @@
         </is>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+        <v>158</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45607</v>
+        <v>45977</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Giri motore 1040. Traccia plot barca iniziata quasi 10 minuti prima, più fedele la traccia nel tablet</t>
-        </is>
-      </c>
       <c r="E16" s="2">
-        <v>0.4729166666656965</v>
+        <v>0.5083333333350311</v>
       </c>
       <c r="F16" s="2">
-        <v>0.4937500000014552</v>
+        <v>0.53125</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1114,42 +1076,35 @@
         </is>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>23.6</v>
       </c>
       <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>45607</v>
+        <v>45977</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Giri motore 740. Molta corrente. Rete rap A salpata con buchi, riparati.</t>
-        </is>
-      </c>
       <c r="E17" s="2">
-        <v>0.5597222222204437</v>
+        <v>0.4319444444445253</v>
       </c>
       <c r="F17" s="2">
-        <v>0.5805555555562023</v>
+        <v>0.452777777776646</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1160,15 +1115,13 @@
         </is>
       </c>
       <c r="J17">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>330</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>6.8</v>
       </c>
       <c r="N17">
         <v>30</v>
@@ -1176,26 +1129,21 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>45607</v>
+        <v>45977</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Giri motore 1030. Deviata la rotta l'ultimo minuto e mezzo</t>
-        </is>
-      </c>
       <c r="E18" s="2">
-        <v>0.625</v>
+        <v>0.6041666666678793</v>
       </c>
       <c r="F18" s="2">
-        <v>0.6458333333321207</v>
+        <v>0.6256944444430701</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1206,42 +1154,35 @@
         </is>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="K18">
+        <v>420</v>
+      </c>
+      <c r="L18">
         <v>14</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="N18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>45607</v>
+        <v>45976</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Giri motore 930. Onda da NO. Rotta spostata per la presenza di una presura sul punto 43 42,656 13 36,690.</t>
-        </is>
-      </c>
       <c r="E19" s="2">
-        <v>0.6930555555554747</v>
+        <v>0.6180555555547471</v>
       </c>
       <c r="F19" s="2">
-        <v>0.7138888888875954</v>
+        <v>0.6388888888905058</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1252,15 +1193,13 @@
         </is>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="K19">
-        <v>30</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
+        <v>12.5</v>
+      </c>
+      <c r="L19">
+        <v>7.8</v>
       </c>
       <c r="N19">
         <v>30</v>
@@ -1268,26 +1207,21 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>45603</v>
+        <v>45976</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>cavo 90 passi (un po di più al rap A). Giri motore 930</t>
-        </is>
-      </c>
       <c r="E20" s="2">
-        <v>0.2902777777781012</v>
+        <v>0.5562500000014552</v>
       </c>
       <c r="F20" s="2">
-        <v>0.2979166666664241</v>
+        <v>0.5770833333335759</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1298,27 +1232,25 @@
         </is>
       </c>
       <c r="J20">
-        <v>150</v>
+        <v>16.3</v>
       </c>
       <c r="K20">
-        <v>60</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>45608</v>
+        <v>45981</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21">
@@ -1326,14 +1258,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Giri motore 980. Mare meno mosso. Qualche dente storto di entrambi i rapidi</t>
+          <t>Numero cassette: 2  / Dato meno coltello, quasi paro</t>
         </is>
       </c>
       <c r="E21" s="2">
-        <v>0.6041666666678793</v>
+        <v>0.359027777776646</v>
       </c>
       <c r="F21" s="2">
-        <v>0.625</v>
+        <v>0.3694444444445253</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1344,42 +1276,35 @@
         </is>
       </c>
       <c r="J21">
-        <v>25.5</v>
+        <v>240</v>
       </c>
       <c r="K21">
-        <v>26.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+        <v>218</v>
+      </c>
+      <c r="L21">
+        <v>9.699999999999999</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>45601</v>
+        <v>45977</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>cavo 75 passi; 10 m di cavo in più al rap D. No denti (dietro margine le slitte)</t>
-        </is>
-      </c>
       <c r="E22" s="2">
-        <v>0.5340277777795563</v>
+        <v>0.2819444444430701</v>
       </c>
       <c r="F22" s="2">
-        <v>0.554861111111677</v>
+        <v>0.3027777777788287</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1390,15 +1315,13 @@
         </is>
       </c>
       <c r="J22">
-        <v>1000</v>
+        <v>22.1</v>
       </c>
       <c r="K22">
-        <v>1200</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <v>6.8</v>
       </c>
       <c r="N22">
         <v>30</v>
@@ -1406,11 +1329,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>45601</v>
+        <v>45976</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C23">
@@ -1418,14 +1341,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cavo 210 passi. Aggiunto 1 cm di denti. Rapido D 10 m in più di cavo</t>
+          <t>Rapido D  salpato capovolto ma ha pescato bene.</t>
         </is>
       </c>
       <c r="E23" s="2">
-        <v>0.6736111111094942</v>
+        <v>0.3493055555554747</v>
       </c>
       <c r="F23" s="2">
-        <v>0.6944444444452529</v>
+        <v>0.3701388888875954</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1436,15 +1359,13 @@
         </is>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="K23">
-        <v>26</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>142</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
       </c>
       <c r="N23">
         <v>30</v>
@@ -1452,26 +1373,21 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>45608</v>
+        <v>45976</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Giri motore 920. Tolto coltello e ridotta durata a 20 minuti perché fondo ad Anadara. Mare mosso, 0,9 m d'onda</t>
-        </is>
-      </c>
       <c r="E24" s="2">
-        <v>0.265972222223354</v>
+        <v>0.484027777776646</v>
       </c>
       <c r="F24" s="2">
-        <v>0.2798611111102218</v>
+        <v>0.5055555555554747</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1482,27 +1398,25 @@
         </is>
       </c>
       <c r="J24">
-        <v>220</v>
+        <v>21.5</v>
       </c>
       <c r="K24">
-        <v>134</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>7.2</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>45608</v>
+        <v>45978</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C25">
@@ -1510,14 +1424,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Giri motore 780. Molta corrente. Mare mosso, 0,9 m d'onda. Rimessi i denti (1 linguetta)</t>
+          <t>Peso e Numero totale delle canocchie misurato a bordo. Non è stato possibile fare pesi e misure individuali a causa della incertezza nella stima del peso individuale perché la bilancia variava anche di 5 grammi. Inoltre non è stato possibile effettuare misure di taglia sui singoli individui a causa della rottura del calibro. Subcampioni  (i dati dei subcampioni sono scritti sui sacchetti) sono stati incassettato e portati in lab divisi per rapido e per sesso per confronto tra peso totale preso a fresco e peso totale preso in lab.</t>
         </is>
       </c>
       <c r="E25" s="2">
-        <v>0.3138888888897782</v>
+        <v>0.4965277777773736</v>
       </c>
       <c r="F25" s="2">
-        <v>0.3347222222218988</v>
+        <v>0.5173611111094942</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1528,15 +1442,13 @@
         </is>
       </c>
       <c r="J25">
-        <v>24.5</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>19</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+        <v>202</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
       </c>
       <c r="N25">
         <v>30</v>
@@ -1544,26 +1456,21 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>45608</v>
+        <v>45978</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Giri motore 990. Mare mosso, 1 m d'onda. Presa come riferimento la traccia del 2023, nell'area tra la traccia del 2020 e le altre tracce ci sono molte afferrature. Non calare mai lì in mezzo !</t>
-        </is>
-      </c>
       <c r="E26" s="2">
-        <v>0.4472222222211713</v>
+        <v>0.4402777777795563</v>
       </c>
       <c r="F26" s="2">
-        <v>0.4680555555569299</v>
+        <v>0.461111111111677</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1574,15 +1481,13 @@
         </is>
       </c>
       <c r="J26">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>38</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>5.4</v>
       </c>
       <c r="N26">
         <v>30</v>
@@ -1590,26 +1495,21 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>45601</v>
+        <v>45978</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>rapA calato 5 minuti prima del D con velocità 4,5 kn. Cavo 210 passi; 10 m in più al rap A. Cala conclusa 5 minuti prima perché superate le tracce dei survey precedenti avendo perso tempo all'inizio per sistemare rete rap D</t>
-        </is>
-      </c>
       <c r="E27" s="2">
-        <v>0.7180555555569299</v>
+        <v>0.3055555555547471</v>
       </c>
       <c r="F27" s="2">
-        <v>0.7354166666664241</v>
+        <v>0.3263888888905058</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1620,42 +1520,35 @@
         </is>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K27">
-        <v>16</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>5.5</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>45610</v>
+        <v>45976</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Cavo 90 passi giri motore 1070.</t>
-        </is>
-      </c>
       <c r="E28" s="2">
-        <v>0.3527777777781012</v>
+        <v>0.5173611111094942</v>
       </c>
       <c r="F28" s="2">
-        <v>0.3736111111102218</v>
+        <v>0.5381944444452529</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1666,15 +1559,13 @@
         </is>
       </c>
       <c r="J28">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="K28">
-        <v>132</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+        <v>25.6</v>
+      </c>
+      <c r="L28">
+        <v>5.6</v>
       </c>
       <c r="N28">
         <v>30</v>
@@ -1682,26 +1573,21 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>45608</v>
+        <v>45978</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Giri motore 1050. Mare mosso, onda da 1 m. Rap A salpato storto</t>
-        </is>
-      </c>
       <c r="E29" s="2">
-        <v>0.4048611111102218</v>
+        <v>0.5840277777788287</v>
       </c>
       <c r="F29" s="2">
-        <v>0.4256944444459805</v>
+        <v>0.6048611111109494</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1712,15 +1598,13 @@
         </is>
       </c>
       <c r="J29">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="K29">
-        <v>34</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
+        <v>266</v>
+      </c>
+      <c r="L29">
+        <v>8.5</v>
       </c>
       <c r="N29">
         <v>30</v>
@@ -1728,26 +1612,21 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>45604</v>
+        <v>45978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>cavo 90 passi (un po' di più al rap A). Giri motore 960. Sentita botta dopo 6 minuti di cala: rap D presi pezzi di tronchi, storto solo qualche dente. Ore 15:22 avvistati segnali reti da posta lungo il percorso, cambio rotta a 340°, tenuta questa rotta per il resto della cala.</t>
-        </is>
-      </c>
       <c r="E30" s="2">
-        <v>0.632638888888323</v>
+        <v>0.34375</v>
       </c>
       <c r="F30" s="2">
-        <v>0.6534722222204437</v>
+        <v>0.3645833333321207</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1758,15 +1637,13 @@
         </is>
       </c>
       <c r="J30">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>210</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>27.7</v>
+      </c>
+      <c r="L30">
+        <v>6.4</v>
       </c>
       <c r="N30">
         <v>30</v>
@@ -1774,11 +1651,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>45604</v>
+        <v>45985</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31">
@@ -1786,14 +1663,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>cavo 75 passi (di più al rap A). Giri motore 890. Rap A raddrizzato coltello dopo la cala</t>
+          <t>Numero cassette: 8.  Coffe nere usate per mettere via i granchi blu. 4 coffe per rapido.</t>
         </is>
       </c>
       <c r="E31" s="2">
-        <v>0.3340277777788287</v>
+        <v>0.7881944444452529</v>
       </c>
       <c r="F31" s="2">
-        <v>0.3548611111109494</v>
+        <v>0.7673611111094942</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1804,27 +1681,25 @@
         </is>
       </c>
       <c r="J31">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+        <v>122</v>
+      </c>
+      <c r="L31">
+        <v>3.5</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>45603</v>
+        <v>45985</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C32">
@@ -1832,14 +1707,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cavo 90 passi. Denti fatti sporgere di una linguetta. Cala serale. Giri motore 850, molta corrente. Vivaio non segnalato: 45 29,238 12 46,539; 45 28,897 12 45,908; 45 28,631 12 46,199; 45 29,048 12 46,710</t>
+          <t>Numero cassette: 4.</t>
         </is>
       </c>
       <c r="E32" s="2">
-        <v>0.7479166666671517</v>
+        <v>0.7055555555562023</v>
       </c>
       <c r="F32" s="2">
-        <v>0.7687499999992724</v>
+        <v>0.726388888888323</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1850,15 +1725,13 @@
         </is>
       </c>
       <c r="J32">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K32">
-        <v>30</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="L32">
+        <v>4.5</v>
       </c>
       <c r="N32">
         <v>30</v>
@@ -1866,11 +1739,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>45603</v>
+        <v>45985</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C33">
@@ -1878,14 +1751,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po più cavo al rap A). Giri al motore 940. Denti spostati a filo con le slitte.</t>
+          <t>Numero cassette: 4.</t>
         </is>
       </c>
       <c r="E33" s="2">
-        <v>0.4319444444445253</v>
+        <v>0.601388888888323</v>
       </c>
       <c r="F33" s="2">
-        <v>0.4361111111102218</v>
+        <v>0.6222222222204437</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1896,27 +1769,25 @@
         </is>
       </c>
       <c r="J33">
-        <v>1070</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>820</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>11.4</t>
-        </is>
+        <v>66</v>
+      </c>
+      <c r="L33">
+        <v>6.1</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>45603</v>
+        <v>45981</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45bis</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C34">
@@ -1924,14 +1795,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più al rap a). Giri motore 890</t>
+          <t>Numero cassette:  2 / Dato meno coltello, quasi paro</t>
         </is>
       </c>
       <c r="E34" s="2">
-        <v>0.4756944444452529</v>
+        <v>0.4520833333335759</v>
       </c>
       <c r="F34" s="2">
-        <v>0.4791666666678793</v>
+        <v>0.4555555555562023</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1942,15 +1813,13 @@
         </is>
       </c>
       <c r="J34">
-        <v>650</v>
+        <v>978</v>
       </c>
       <c r="K34">
-        <v>850</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+        <v>408</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
       </c>
       <c r="N34">
         <v>5</v>
@@ -1958,11 +1827,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>45605</v>
+        <v>45981</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45 BIS</t>
         </is>
       </c>
       <c r="C35">
@@ -1970,14 +1839,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cavo 200 giri 930</t>
+          <t>Numero cassette: 2  / Dato meno coltello, quasi paro</t>
         </is>
       </c>
       <c r="E35" s="2">
-        <v>0.2958333333335759</v>
+        <v>0.4861111111094942</v>
       </c>
       <c r="F35" s="2">
-        <v>0.3166666666656965</v>
+        <v>0.4895833333321207</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1988,27 +1857,22 @@
         </is>
       </c>
       <c r="J35">
-        <v>92</v>
+        <v>536</v>
       </c>
       <c r="K35">
-        <v>70</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+        <v>516</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>45605</v>
+        <v>45985</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C36">
@@ -2016,14 +1880,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>cavo 120 passi giri motore 910</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E36" s="2">
-        <v>0.5743055555540195</v>
+        <v>0.2388888888890506</v>
       </c>
       <c r="F36" s="2">
-        <v>0.6159722222218988</v>
+        <v>0.2597222222211713</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2034,27 +1898,25 @@
         </is>
       </c>
       <c r="J36">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>22</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>45607</v>
+        <v>45982</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C37">
@@ -2062,14 +1924,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cavo 75 passi. Giri motore 920. Mare mosso 0.9-1 m d'onda.</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E37" s="2">
-        <v>0.2694444444459805</v>
+        <v>0.4576388888890506</v>
       </c>
       <c r="F37" s="2">
-        <v>0.297222222223354</v>
+        <v>0.4784722222211713</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2080,27 +1942,25 @@
         </is>
       </c>
       <c r="J37">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>44</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>4.7</v>
       </c>
       <c r="N37">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>45601</v>
+        <v>45984</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C38">
@@ -2108,14 +1968,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cavo 120 passi. No denti.</t>
+          <t>Numero cassette:  4</t>
         </is>
       </c>
       <c r="E38" s="2">
-        <v>0.6145833333321207</v>
+        <v>0.4208333333335759</v>
       </c>
       <c r="F38" s="2">
-        <v>0.6354166666678793</v>
+        <v>0.4416666666656965</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2126,15 +1986,13 @@
         </is>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K38">
-        <v>12</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="L38">
+        <v>6.6</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -2142,26 +2000,21 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>45604</v>
+        <v>45976</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>cavo 135 passi (un po' di più al rap A). Giri motore 860. Cambi di rotta lungo la traccia per evitare di concludera la strascicata su punto critico (rotta iniziale 121°, modificata a 110°, poi impostata a 125°, infine modificata a 111°</t>
-        </is>
-      </c>
       <c r="E39" s="2">
-        <v>0.4090277777795563</v>
+        <v>0.4354166666671517</v>
       </c>
       <c r="F39" s="2">
-        <v>0.429861111111677</v>
+        <v>0.4562499999992724</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2172,15 +2025,13 @@
         </is>
       </c>
       <c r="J39">
-        <v>270</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K39">
-        <v>280</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>10.2</v>
+      </c>
+      <c r="L39">
+        <v>4.6</v>
       </c>
       <c r="N39">
         <v>30</v>
@@ -2188,11 +2039,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>45610</v>
+        <v>45985</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40">
@@ -2200,14 +2051,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cavo 250 passi giri motore 1080.  Fatta deviazione a inizio cala per evitare peschereccio</t>
+          <t>Numero cassette: 4.</t>
         </is>
       </c>
       <c r="E40" s="2">
-        <v>0.3152777777795563</v>
+        <v>0.4784722222211713</v>
       </c>
       <c r="F40" s="2">
-        <v>0.336111111111677</v>
+        <v>0.4993055555569299</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2218,15 +2069,13 @@
         </is>
       </c>
       <c r="J40">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="K40">
-        <v>11</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="L40">
+        <v>6.7</v>
       </c>
       <c r="N40">
         <v>30</v>
@@ -2234,26 +2083,21 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>45602</v>
+        <v>45978</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>cavo 135 passi, più  abbondante per il rap A. Cala serale. Durata ridotta per completare la programmazione giornaliera. Giri motore 930.</t>
-        </is>
-      </c>
       <c r="E41" s="2">
-        <v>0.78125</v>
+        <v>0.6222222222204437</v>
       </c>
       <c r="F41" s="2">
-        <v>0.7916666666678793</v>
+        <v>0.6430555555562023</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2264,27 +2108,25 @@
         </is>
       </c>
       <c r="J41">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="K41">
-        <v>120</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>45602</v>
+        <v>45981</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C42">
@@ -2292,14 +2134,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più a rap A. aumentato num di giri motore (890) per tenere la velocità. Rete rap A ricucita in alcuni punti</t>
+          <t>Numero cassette: 6</t>
         </is>
       </c>
       <c r="E42" s="2">
-        <v>0.3493055555554747</v>
+        <v>0.6145833333321207</v>
       </c>
       <c r="F42" s="2">
-        <v>0.359722222223354</v>
+        <v>0.6354166666678793</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2310,27 +2152,25 @@
         </is>
       </c>
       <c r="J42">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K42">
-        <v>410</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>198</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>45606</v>
+        <v>45980</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C43">
@@ -2338,14 +2178,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cavo 180  passi giri motore  910 nuova traccia del 2023 preso cavo d acciaio sul rapido D commerciale valido ma discar e litter presi dal rapido A</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E43" s="2">
-        <v>0.3368055555547471</v>
+        <v>0.4701388888897782</v>
       </c>
       <c r="F43" s="2">
-        <v>0.3576388888905058</v>
+        <v>0.4805555555540195</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2356,27 +2196,25 @@
         </is>
       </c>
       <c r="J43">
-        <v>19.9</v>
+        <v>582</v>
       </c>
       <c r="K43">
-        <v>10.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
+        <v>322</v>
+      </c>
+      <c r="L43">
+        <v>10.2</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>45604</v>
+        <v>45982</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C44">
@@ -2384,14 +2222,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cavo 90 passi (di più al rap A). Giri motore 890. Corretta la posizione alle 7:15 accostandoci alle tracce precedenti. Traccia interrotta in ritardo, prosegue più  del dovuto.</t>
+          <t>Numero cassette:  6</t>
         </is>
       </c>
       <c r="E44" s="2">
-        <v>0.2958333333335759</v>
+        <v>0.6361111111109494</v>
       </c>
       <c r="F44" s="2">
-        <v>0.3173611111124046</v>
+        <v>0.6569444444430701</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2402,27 +2240,25 @@
         </is>
       </c>
       <c r="J44">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K44">
         <v>30</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+      <c r="L44">
+        <v>5.8</v>
       </c>
       <c r="N44">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>45602</v>
+        <v>45985</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C45">
@@ -2430,14 +2266,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cavo 120 passi, più  lungo quello del rap A. Giri motore 900. Durata della cala ridotta per completare il programma della giornata. Cala dopo il tramonto</t>
+          <t>Numero cassette: 5. 4 Coffe di orate, 2 per reapido (messo biglietto con numero di cala).</t>
         </is>
       </c>
       <c r="E45" s="2">
-        <v>0.7368055555562023</v>
+        <v>0.672222222223354</v>
       </c>
       <c r="F45" s="2">
-        <v>0.7479166666671517</v>
+        <v>0.6930555555554747</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2448,27 +2284,25 @@
         </is>
       </c>
       <c r="J45">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>156</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+        <v>108</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>45604</v>
+        <v>45981</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C46">
@@ -2476,14 +2310,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cavo 135 passi (di più al rap A). Giri motore 880</t>
+          <t>Numero cassette: 8</t>
         </is>
       </c>
       <c r="E46" s="2">
-        <v>0.4631944444445253</v>
+        <v>0.6590277777795563</v>
       </c>
       <c r="F46" s="2">
-        <v>0.484027777776646</v>
+        <v>0.679861111111677</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2494,15 +2328,13 @@
         </is>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="K46">
-        <v>52</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+        <v>362</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -2510,11 +2342,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>45602</v>
+        <v>45985</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C47">
@@ -2522,14 +2354,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più a rap A. Aggiunta mezza linguetta ai denti.</t>
+          <t>Numero cassette: 5.</t>
         </is>
       </c>
       <c r="E47" s="2">
-        <v>0.5798611111094942</v>
+        <v>0.422222222223354</v>
       </c>
       <c r="F47" s="2">
-        <v>0.6027777777781012</v>
+        <v>0.4430555555554747</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2540,27 +2372,25 @@
         </is>
       </c>
       <c r="J47">
-        <v>95</v>
+        <v>13518</v>
       </c>
       <c r="K47">
-        <v>90</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="L47">
+        <v>4.7</v>
       </c>
       <c r="N47">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>45605</v>
+        <v>45980</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C48">
@@ -2568,14 +2398,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cavo 135 passi giri motore 870</t>
+          <t>Numero cassette: 5</t>
         </is>
       </c>
       <c r="E48" s="2">
-        <v>0.4736111111124046</v>
+        <v>0.6749999999992724</v>
       </c>
       <c r="F48" s="2">
-        <v>0.4944444444445253</v>
+        <v>0.6958333333350311</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2586,15 +2416,13 @@
         </is>
       </c>
       <c r="J48">
-        <v>106</v>
+        <v>60.3</v>
       </c>
       <c r="K48">
-        <v>120</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <v>6.4</v>
       </c>
       <c r="N48">
         <v>30</v>
@@ -2602,11 +2430,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>45602</v>
+        <v>45982</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C49">
@@ -2614,14 +2442,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 920. Durata ridotta per completare le stazioni della giornata</t>
+          <t>Numero cassette: 6</t>
         </is>
       </c>
       <c r="E49" s="2">
-        <v>0.7048611111094942</v>
+        <v>0.3611111111094942</v>
       </c>
       <c r="F49" s="2">
-        <v>0.7159722222204437</v>
+        <v>0.3819444444452529</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2632,27 +2460,25 @@
         </is>
       </c>
       <c r="J49">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>220</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="L49">
+        <v>6.2</v>
       </c>
       <c r="N49">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>45602</v>
+        <v>45981</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50">
@@ -2660,14 +2486,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>giri motore 890</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E50" s="2">
-        <v>0.3930555555562023</v>
+        <v>0.7055555555562023</v>
       </c>
       <c r="F50" s="2">
-        <v>0.4041666666671517</v>
+        <v>0.7159722222204437</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2678,27 +2504,25 @@
         </is>
       </c>
       <c r="J50">
-        <v>450</v>
+        <v>208</v>
       </c>
       <c r="K50">
-        <v>610</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+        <v>138</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
       </c>
       <c r="N50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>45605</v>
+        <v>45980</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C51">
@@ -2706,14 +2530,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cavo 120 passi giri motore 930</t>
+          <t>Numero cassette: 3</t>
         </is>
       </c>
       <c r="E51" s="2">
-        <v>0.6201388888875954</v>
+        <v>0.5118055555540195</v>
       </c>
       <c r="F51" s="2">
-        <v>0.640972222223354</v>
+        <v>0.5222222222218988</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2724,27 +2548,25 @@
         </is>
       </c>
       <c r="J51">
-        <v>14</v>
+        <v>580</v>
       </c>
       <c r="K51">
-        <v>24</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
+        <v>388</v>
+      </c>
+      <c r="L51">
+        <v>7.7</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>45605</v>
+        <v>45982</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C52">
@@ -2752,14 +2574,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cavo 150 passi giri motore 950</t>
+          <t>Numero cassette:  4</t>
         </is>
       </c>
       <c r="E52" s="2">
-        <v>0.648611111111677</v>
+        <v>0.5041666666656965</v>
       </c>
       <c r="F52" s="2">
-        <v>0.6694444444437977</v>
+        <v>0.5250000000014552</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2770,15 +2592,13 @@
         </is>
       </c>
       <c r="J52">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K52">
         <v>38</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="L52">
+        <v>5</v>
       </c>
       <c r="N52">
         <v>30</v>
@@ -2786,11 +2606,11 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>45607</v>
+        <v>45982</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C53">
@@ -2798,14 +2618,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore tirati solo 15 minuti per evitare saccate troppo grosse</t>
+          <t>Numero cassette:  4</t>
         </is>
       </c>
       <c r="E53" s="2">
-        <v>0.5486111111094942</v>
+        <v>0.5326388888897782</v>
       </c>
       <c r="F53" s="2">
-        <v>0.5590277777773736</v>
+        <v>0.5604166666671517</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2816,27 +2636,25 @@
         </is>
       </c>
       <c r="J53">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>102</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
       </c>
       <c r="N53">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>45607</v>
+        <v>45984</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C54">
@@ -2844,11 +2662,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 850 cala ridotta a 15 minuti per evitare danni ai rapidi</t>
+          <t>Numero cassette:  6. Misurato subcampione di soglione a bordo dai Rapidi A e D.</t>
         </is>
       </c>
       <c r="E54" s="2">
-        <v>0.5972222222226264</v>
+        <v>0.617361111111677</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.6381944444437977</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2859,27 +2680,25 @@
         </is>
       </c>
       <c r="J54">
-        <v>18.1</v>
+        <v>130</v>
       </c>
       <c r="K54">
-        <v>25.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+        <v>126</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>45607</v>
+        <v>45984</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C55">
@@ -2887,11 +2706,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 800 ridotto a 15 per evitare saccate troppo grosse</t>
+          <t>Numero cassette:  4</t>
         </is>
       </c>
       <c r="E55" s="2">
-        <v>0.6736111111094942</v>
+        <v>0.4666666666671517</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.4770833333350311</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2902,15 +2724,13 @@
         </is>
       </c>
       <c r="J55">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="K55">
-        <v>60</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
       </c>
       <c r="N55">
         <v>15</v>
@@ -2918,11 +2738,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>45601</v>
+        <v>45984</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C56">
@@ -2930,14 +2750,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cavo 90 passi; 10 m in più al rap D. No denti (dietro margine slitte)</t>
+          <t>Numero cassette:  5</t>
         </is>
       </c>
       <c r="E56" s="2">
-        <v>0.4756944444452529</v>
+        <v>0.6979166666678793</v>
       </c>
       <c r="F56" s="2">
-        <v>0.4965277777773736</v>
+        <v>0.71875</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2948,15 +2768,13 @@
         </is>
       </c>
       <c r="J56">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="K56">
-        <v>666</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
+        <v>168</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
       </c>
       <c r="N56">
         <v>30</v>
@@ -2964,26 +2782,21 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>45608</v>
+        <v>45976</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Giri motore 1040. Mare mosso, 1 m d'onda.</t>
-        </is>
-      </c>
       <c r="E57" s="2">
-        <v>0.3555555555540195</v>
+        <v>0.3895833333335759</v>
       </c>
       <c r="F57" s="2">
-        <v>0.3763888888897782</v>
+        <v>0.4104166666656965</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2994,15 +2807,13 @@
         </is>
       </c>
       <c r="J57">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="K57">
-        <v>21.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="L57">
+        <v>4.5</v>
       </c>
       <c r="N57">
         <v>30</v>
@@ -3010,26 +2821,21 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>45610</v>
+        <v>46708</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Cavo 90 passi giri motore 1040. Il rapido A ha dato uno scossone in cala. Salpato prima per presenza area di scarico materiali portuali.</t>
-        </is>
-      </c>
       <c r="E58" s="2">
-        <v>0.257638888888323</v>
+        <v>0.3958333333321207</v>
       </c>
       <c r="F58" s="2">
-        <v>0.2763888888875954</v>
+        <v>0.4166666666678793</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3040,27 +2846,25 @@
         </is>
       </c>
       <c r="J58">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="K58">
-        <v>382</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>23.6</v>
+      </c>
+      <c r="L58">
+        <v>3.4</v>
       </c>
       <c r="N58">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>45609</v>
+        <v>45978</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C59">
@@ -3068,14 +2872,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cavo 270 passi giri motore 960</t>
+          <t>Peso e Numero totale delle canocchie misurato a bordo. Non è stato possibile fare pesi e misure individuali a causa della incertezza nella stima del peso individuale perché la bilancia variava anche di 5 grammi. Inoltre non è stato possibile effettuare misure di taglia sui singoli individui a causa della rottura del calibro. Il totale delle campione è stato incassettato e portato in lab per confronto tra peso totale preso a fresco e peso totale preso in lab.</t>
         </is>
       </c>
       <c r="E59" s="2">
-        <v>0.2361111111094942</v>
+        <v>0.672222222223354</v>
       </c>
       <c r="F59" s="2">
-        <v>0.2569444444452529</v>
+        <v>0.6930555555554747</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3086,15 +2890,13 @@
         </is>
       </c>
       <c r="J59">
-        <v>29.2</v>
+        <v>120</v>
       </c>
       <c r="K59">
-        <v>23.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
+        <v>154</v>
+      </c>
+      <c r="L59">
+        <v>12</v>
       </c>
       <c r="N59">
         <v>30</v>
@@ -3102,11 +2904,11 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C60">
@@ -3114,14 +2916,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cavo 105 passi giri motore 800</t>
+          <t>CALA DI 15 MINUTI PER PRESENZA OSTACOLI</t>
         </is>
       </c>
       <c r="E60" s="2">
-        <v>0.2763888888875954</v>
+        <v>0.632638888888323</v>
       </c>
       <c r="F60" s="2">
-        <v>0.297222222223354</v>
+        <v>0.6430555555562023</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -3132,42 +2934,35 @@
         </is>
       </c>
       <c r="J60">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="K60">
-        <v>12</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Cavo 90 giri motore 800 Rotta modificata per presenza nuovo vivaio cozze</t>
-        </is>
-      </c>
       <c r="E61" s="2">
-        <v>0.3777777777795563</v>
+        <v>0.5416666666678793</v>
       </c>
       <c r="F61" s="2">
-        <v>0.398611111111677</v>
+        <v>0.5625</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3178,15 +2973,13 @@
         </is>
       </c>
       <c r="J61">
-        <v>5.6</v>
+        <v>178</v>
       </c>
       <c r="K61">
-        <v>8.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
       </c>
       <c r="N61">
         <v>30</v>
@@ -3194,26 +2987,21 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Cavo 330 passi giri motore 900</t>
-        </is>
-      </c>
       <c r="E62" s="2">
-        <v>0.4618055555547471</v>
+        <v>0.4729166666656965</v>
       </c>
       <c r="F62" s="2">
-        <v>0.4826388888905058</v>
+        <v>0.4937500000014552</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3224,15 +3012,13 @@
         </is>
       </c>
       <c r="J62">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="K62">
-        <v>112</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="L62">
+        <v>5.4</v>
       </c>
       <c r="N62">
         <v>30</v>
@@ -3240,21 +3026,21 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="E63" s="2">
-        <v>0.5333333333328483</v>
+        <v>0.4166666666678793</v>
       </c>
       <c r="F63" s="2">
-        <v>0.5541666666649689</v>
+        <v>0.4375</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3265,15 +3051,13 @@
         </is>
       </c>
       <c r="J63">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="K63">
-        <v>32</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="L63">
+        <v>7.7</v>
       </c>
       <c r="N63">
         <v>30</v>
@@ -3281,26 +3065,21 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>cavo 90 passi giri 840 preso segnale</t>
-        </is>
-      </c>
       <c r="E64" s="2">
-        <v>0.586111111111677</v>
+        <v>0.3263888888905058</v>
       </c>
       <c r="F64" s="2">
-        <v>14.33000000000175</v>
+        <v>0.3472222222226264</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3311,42 +3090,35 @@
         </is>
       </c>
       <c r="J64">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="K64">
-        <v>23</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>14.8</v>
+      </c>
+      <c r="L64">
+        <v>4.1</v>
       </c>
       <c r="N64">
-        <v>13.74388888888889</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>45609</v>
+        <v>45979</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>cavo 250 giri 900</t>
-        </is>
-      </c>
       <c r="E65" s="2">
-        <v>0.663888888888323</v>
+        <v>0.2680555555562023</v>
       </c>
       <c r="F65" s="2">
-        <v>0.6847222222204437</v>
+        <v>0.288888888888323</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3357,15 +3129,13 @@
         </is>
       </c>
       <c r="J65">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K65">
-        <v>16.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>14.8</v>
+      </c>
+      <c r="L65">
+        <v>5.3</v>
       </c>
       <c r="N65">
         <v>30</v>
@@ -3373,21 +3143,26 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>45609</v>
+        <v>45985</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Numero cassette: 4. Rapido D 1 coffa blu di granchi blu. Rapido A 2 coffe gialle di granchi blu. Le 3 coffe saranno portate in laboartorio.</t>
+        </is>
+      </c>
       <c r="E66" s="2">
-        <v>0.7201388888897782</v>
+        <v>0.3194444444452529</v>
       </c>
       <c r="F66" s="2">
-        <v>0.7409722222218988</v>
+        <v>0.3402777777773736</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3398,15 +3173,13 @@
         </is>
       </c>
       <c r="J66">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K66">
-        <v>8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
       </c>
       <c r="N66">
         <v>30</v>
@@ -3414,11 +3187,11 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45605</v>
+        <v>45981</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C67">
@@ -3426,14 +3199,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 910</t>
+          <t>Numero cassette: 4</t>
         </is>
       </c>
       <c r="E67" s="2">
-        <v>0.3993055555547471</v>
+        <v>0.7750000000014552</v>
       </c>
       <c r="F67" s="2">
-        <v>0.4201388888905058</v>
+        <v>0.7958333333335759</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3444,63 +3217,15 @@
         </is>
       </c>
       <c r="J67">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="K67">
-        <v>46</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
       </c>
       <c r="N67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2">
-        <v>45604</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Giri motore 1000</t>
-        </is>
-      </c>
-      <c r="E68" s="2">
-        <v>0.5166666666664241</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0.5374999999985448</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="J68">
-        <v>68</v>
-      </c>
-      <c r="K68">
-        <v>78</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N68">
         <v>30</v>
       </c>
     </row>
